--- a/datamanagement-service/src/main/resources/IMPORT_BOT0_Raumliste.xlsx
+++ b/datamanagement-service/src/main/resources/IMPORT_BOT0_Raumliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\+++Schule\AE_LF12\Projekt Berufsorientierungstag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77A99E5A-1480-4E7E-9627-7C0EA70C4D0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5638207B-B2F4-4EBA-AE4A-10B5D249FBAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{254B5C5A-C805-468E-BF4E-A3CDD66F8374}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{254B5C5A-C805-468E-BF4E-A3CDD66F8374}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>008</t>
   </si>
   <si>
     <t>Aula</t>
+  </si>
+  <si>
+    <t>Raum</t>
+  </si>
+  <si>
+    <t>Kapazität</t>
   </si>
 </sst>
 </file>
@@ -383,82 +389,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0EFAA5-628D-4D52-9815-787F64D78A8F}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>209</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
